--- a/Test Data/TestDataExcelSheet.xlsx
+++ b/Test Data/TestDataExcelSheet.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul Singh\git\Project\Test Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CFB9A3-4C40-4C03-BF21-5DE7A292119B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9204"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankPortal" sheetId="1" r:id="rId1"/>
-    <sheet name="AssetManagerPortal" sheetId="2" r:id="rId2"/>
-    <sheet name="UserManagement" sheetId="3" r:id="rId3"/>
-    <sheet name="ProfilePage" sheetId="4" r:id="rId4"/>
-    <sheet name="AdminPortal" sheetId="5" r:id="rId5"/>
+    <sheet name="ReadData" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
+    <sheet name="AssetManagerPortal" sheetId="2" r:id="rId4"/>
+    <sheet name="UserManagement" sheetId="3" r:id="rId5"/>
+    <sheet name="ProfilePage" sheetId="4" r:id="rId6"/>
+    <sheet name="AdminPortal" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="523">
   <si>
     <t>TC</t>
   </si>
@@ -1551,19 +1559,55 @@
   </si>
   <si>
     <t>New Benchmark</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Dheeraj</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>NewDelhi</t>
+  </si>
+  <si>
+    <t>dheerajps77</t>
+  </si>
+  <si>
+    <t>djdksks</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>RahulSingh333</t>
+  </si>
+  <si>
+    <t>sdlkfjsldjflds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1584,7 +1628,6 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1592,7 +1635,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1603,136 +1645,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1745,194 +1659,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1955,255 +1683,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2217,17 +1706,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2237,61 +1726,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2549,60 +1995,60 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14814814814815" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="16.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="32.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="55.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="32.5555555555556" customWidth="1"/>
-    <col min="10" max="10" width="35.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="28.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" customWidth="1"/>
     <col min="12" max="12" width="39" customWidth="1"/>
-    <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
-    <col min="14" max="14" width="43.2222222222222" customWidth="1"/>
+    <col min="13" max="13" width="32.140625" customWidth="1"/>
+    <col min="14" max="14" width="43.28515625" customWidth="1"/>
     <col min="15" max="15" width="26" customWidth="1"/>
-    <col min="16" max="16" width="43.2222222222222" customWidth="1"/>
-    <col min="17" max="17" width="22.1111111111111" customWidth="1"/>
-    <col min="18" max="18" width="31.4444444444444" customWidth="1"/>
-    <col min="19" max="19" width="18.2222222222222" customWidth="1"/>
-    <col min="20" max="20" width="40.5555555555556" customWidth="1"/>
-    <col min="21" max="21" width="32.5555555555556" customWidth="1"/>
+    <col min="16" max="16" width="43.28515625" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" customWidth="1"/>
+    <col min="18" max="18" width="31.42578125" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="40.5703125" customWidth="1"/>
+    <col min="21" max="21" width="32.5703125" customWidth="1"/>
     <col min="22" max="22" width="40" customWidth="1"/>
-    <col min="23" max="23" width="24.4444444444444" customWidth="1"/>
-    <col min="24" max="24" width="23.7777777777778" customWidth="1"/>
-    <col min="25" max="25" width="13.8888888888889" customWidth="1"/>
-    <col min="26" max="26" width="26.1111111111111" customWidth="1"/>
-    <col min="27" max="27" width="17.4444444444444" customWidth="1"/>
-    <col min="28" max="28" width="31.7777777777778" customWidth="1"/>
-    <col min="29" max="29" width="30.7777777777778" customWidth="1"/>
-    <col min="30" max="30" width="35.7777777777778" customWidth="1"/>
+    <col min="23" max="23" width="24.42578125" customWidth="1"/>
+    <col min="24" max="24" width="23.7109375" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" customWidth="1"/>
+    <col min="26" max="26" width="26.140625" customWidth="1"/>
+    <col min="27" max="27" width="17.42578125" customWidth="1"/>
+    <col min="28" max="28" width="31.7109375" customWidth="1"/>
+    <col min="29" max="29" width="30.7109375" customWidth="1"/>
+    <col min="30" max="30" width="35.7109375" customWidth="1"/>
     <col min="32" max="32" width="35" customWidth="1"/>
-    <col min="33" max="33" width="19.7777777777778" customWidth="1"/>
+    <col min="33" max="33" width="19.7109375" customWidth="1"/>
     <col min="34" max="34" width="24" customWidth="1"/>
-    <col min="35" max="35" width="16.2222222222222" customWidth="1"/>
-    <col min="36" max="36" width="33.8888888888889" customWidth="1"/>
-    <col min="37" max="37" width="23.2222222222222" customWidth="1"/>
-    <col min="38" max="38" width="24.1111111111111" customWidth="1"/>
+    <col min="35" max="35" width="16.28515625" customWidth="1"/>
+    <col min="36" max="36" width="33.85546875" customWidth="1"/>
+    <col min="37" max="37" width="23.28515625" customWidth="1"/>
+    <col min="38" max="38" width="24.140625" customWidth="1"/>
     <col min="39" max="39" width="15" customWidth="1"/>
-    <col min="40" max="40" width="26.5555555555556" customWidth="1"/>
-    <col min="41" max="41" width="16.6666666666667" customWidth="1"/>
+    <col min="40" max="40" width="26.5703125" customWidth="1"/>
+    <col min="41" max="41" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2667,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:51">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2720,7 +2166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:51">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -2803,7 +2249,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:51">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -2910,7 +2356,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:51">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -2981,7 +2427,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:51">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -3070,7 +2516,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:11">
+    <row r="7" spans="1:51">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -3105,7 +2551,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:51">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -3200,7 +2646,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:51">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -3259,7 +2705,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:9">
+    <row r="10" spans="1:51">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -3288,7 +2734,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:9">
+    <row r="11" spans="1:51">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -3317,7 +2763,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:9">
+    <row r="12" spans="1:51">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -3501,7 +2947,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:51">
       <c r="A14" t="s">
         <v>184</v>
       </c>
@@ -3626,7 +3072,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:51">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -3675,59 +3121,150 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="https://bank.qa.investasolutions.com/#/user-list"/>
-    <hyperlink ref="G4" r:id="rId2" display="https://bank.qa.investasolutions.com/#/portfolio-model-list"/>
-    <hyperlink ref="G7" r:id="rId3" display="https://bank.qa.investasolutions.com/#/pm-configuration" tooltip="https://bank.qa.investasolutions.com/#/pm-configuration"/>
-    <hyperlink ref="G10" r:id="rId4" display="testuser@abcbank.com" tooltip="mailto:testuser@abcbank.com"/>
-    <hyperlink ref="G11" r:id="rId4" display="testuser@abcbank.com" tooltip="mailto:testuser@abcbank.com"/>
-    <hyperlink ref="G12" r:id="rId4" display="testuser@abcbank.com" tooltip="mailto:testuser@abcbank.com"/>
-    <hyperlink ref="G13" r:id="rId3" display="https://bank.qa.investasolutions.com/#/pm-configuration" tooltip="https://bank.qa.investasolutions.com/#/pm-configuration"/>
-    <hyperlink ref="G14" r:id="rId3" display="https://bank.qa.investasolutions.com/#/pm-configuration" tooltip="https://bank.qa.investasolutions.com/#/pm-configuration"/>
-    <hyperlink ref="G15" r:id="rId3" display="https://bank.qa.investasolutions.com/#/pm-configuration" tooltip="https://bank.qa.investasolutions.com/#/pm-configuration"/>
+    <hyperlink ref="G3" r:id="rId1" location="/user-list" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G4" r:id="rId2" location="/portfolio-model-list" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G7" r:id="rId3" location="/pm-configuration" tooltip="https://bank.qa.investasolutions.com/#/pm-configuration" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G10" r:id="rId4" tooltip="mailto:testuser@abcbank.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G11" r:id="rId5" tooltip="mailto:testuser@abcbank.com" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G12" r:id="rId6" tooltip="mailto:testuser@abcbank.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G13" r:id="rId7" location="/pm-configuration" tooltip="https://bank.qa.investasolutions.com/#/pm-configuration" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G14" r:id="rId8" location="/pm-configuration" tooltip="https://bank.qa.investasolutions.com/#/pm-configuration" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G15" r:id="rId9" location="/pm-configuration" tooltip="https://bank.qa.investasolutions.com/#/pm-configuration" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57332A19-EBDC-4DBD-BD3B-8CE8F584EE72}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A9C21F-5921-4B4C-8F4A-3453DCAD0695}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14814814814815" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="38.0925925925926" customWidth="1"/>
-    <col min="3" max="3" width="31.7222222222222" customWidth="1"/>
-    <col min="4" max="4" width="22.5462962962963" customWidth="1"/>
-    <col min="5" max="5" width="14.4537037037037" customWidth="1"/>
-    <col min="6" max="6" width="24.2685185185185" customWidth="1"/>
-    <col min="7" max="7" width="42.0925925925926" customWidth="1"/>
-    <col min="8" max="8" width="27.1851851851852" customWidth="1"/>
-    <col min="9" max="9" width="23.9074074074074" customWidth="1"/>
-    <col min="10" max="10" width="32.3611111111111" customWidth="1"/>
-    <col min="11" max="11" width="28.1851851851852" customWidth="1"/>
-    <col min="12" max="12" width="32.5462962962963" customWidth="1"/>
-    <col min="13" max="13" width="24.1851851851852" customWidth="1"/>
-    <col min="14" max="14" width="28.2685185185185" customWidth="1"/>
-    <col min="15" max="15" width="11.4537037037037" customWidth="1"/>
-    <col min="16" max="16" width="35.6666666666667" customWidth="1"/>
-    <col min="17" max="17" width="31.8888888888889" customWidth="1"/>
-    <col min="18" max="18" width="29.3611111111111" customWidth="1"/>
-    <col min="19" max="19" width="45.8888888888889" customWidth="1"/>
-    <col min="20" max="20" width="23.8148148148148" customWidth="1"/>
-    <col min="21" max="21" width="28.1851851851852" customWidth="1"/>
-    <col min="22" max="22" width="38.0925925925926" customWidth="1"/>
-    <col min="23" max="23" width="23.9074074074074" customWidth="1"/>
-    <col min="24" max="24" width="33.4537037037037" customWidth="1"/>
-    <col min="25" max="25" width="57.6388888888889" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="32.42578125" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" customWidth="1"/>
+    <col min="12" max="12" width="32.5703125" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" customWidth="1"/>
+    <col min="14" max="14" width="28.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="35.7109375" customWidth="1"/>
+    <col min="17" max="17" width="31.85546875" customWidth="1"/>
+    <col min="18" max="18" width="29.42578125" customWidth="1"/>
+    <col min="19" max="19" width="45.85546875" customWidth="1"/>
+    <col min="20" max="20" width="23.85546875" customWidth="1"/>
+    <col min="21" max="21" width="28.140625" customWidth="1"/>
+    <col min="22" max="22" width="38.140625" customWidth="1"/>
+    <col min="23" max="23" width="23.85546875" customWidth="1"/>
+    <col min="24" max="24" width="33.42578125" customWidth="1"/>
+    <col min="25" max="25" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3792,7 +3329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3815,7 +3352,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3844,7 +3381,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -3885,7 +3422,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:35">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -3950,7 +3487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:35">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -3997,7 +3534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:35">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -4062,7 +3599,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:35">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -4133,7 +3670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:35">
       <c r="A9" t="s">
         <v>212</v>
       </c>
@@ -4174,7 +3711,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:35">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -4209,7 +3746,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:35">
       <c r="A11" t="s">
         <v>291</v>
       </c>
@@ -4310,7 +3847,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:35">
       <c r="A12" t="s">
         <v>314</v>
       </c>
@@ -4393,7 +3930,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:35">
       <c r="A13" t="s">
         <v>327</v>
       </c>
@@ -4476,7 +4013,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:19">
+    <row r="14" spans="1:35">
       <c r="A14" t="s">
         <v>347</v>
       </c>
@@ -4642,7 +4179,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="16" ht="28.8" spans="1:25">
+    <row r="16" spans="1:35" ht="30">
       <c r="A16" t="s">
         <v>386</v>
       </c>
@@ -4719,7 +4256,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:11">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
         <v>403</v>
       </c>
@@ -4849,7 +4386,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:11">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -4884,7 +4421,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:13">
+    <row r="20" spans="1:31">
       <c r="A20" s="8" t="s">
         <v>430</v>
       </c>
@@ -4925,7 +4462,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:19">
+    <row r="21" spans="1:31">
       <c r="A21" s="8" t="s">
         <v>433</v>
       </c>
@@ -4984,7 +4521,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
         <v>440</v>
       </c>
@@ -5031,7 +4568,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:31">
       <c r="A23" s="8" t="s">
         <v>443</v>
       </c>
@@ -5096,7 +4633,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
         <v>446</v>
       </c>
@@ -5109,39 +4646,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="testuser@inv.com"/>
-    <hyperlink ref="I12" r:id="rId2" display="https://am.qa.investasolutions.com/#/benchmark_list"/>
-    <hyperlink ref="U13" r:id="rId3" display="https://am.qa.investasolutions.com/#/strategy-list"/>
-    <hyperlink ref="Y13" r:id="rId4" display="https://am.qa.investasolutions.com/#/strategy-management"/>
-    <hyperlink ref="AA18" r:id="rId5" display="https://am.qa.investasolutions.com/#/benchmark_creation/5c88df9d84f77a67d84e7215"/>
-    <hyperlink ref="C19" r:id="rId6" display="A@magic-am.com"/>
-    <hyperlink ref="C20" r:id="rId6" display="A@magic-am.com"/>
-    <hyperlink ref="M20" r:id="rId7" display="modifiedUser@magic-am.com"/>
-    <hyperlink ref="C21" r:id="rId6" display="A@magic-am.com"/>
-    <hyperlink ref="M21" r:id="rId7" display="modifiedUser@magic-am.com"/>
-    <hyperlink ref="S21" r:id="rId8" display="https://am.qa.investasolutions.com/#/dashboard"/>
-    <hyperlink ref="C23" r:id="rId6" display="A@magic-am.com"/>
-    <hyperlink ref="M23" r:id="rId7" display="modifiedUser@magic-am.com"/>
-    <hyperlink ref="S23" r:id="rId8" display="https://am.qa.investasolutions.com/#/dashboard"/>
-    <hyperlink ref="C24" r:id="rId9" display="john.doe@magic-am.com"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I12" r:id="rId2" location="/benchmark_list" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="U13" r:id="rId3" location="/strategy-list" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="Y13" r:id="rId4" location="/strategy-management" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="AA18" r:id="rId5" location="/benchmark_creation/5c88df9d84f77a67d84e7215" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C19" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C20" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="M20" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C21" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="M21" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="S21" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="C23" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="M23" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="S23" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="C24" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U16384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:21">
+    <row r="1" spans="1:21" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5206,7 +4741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:21">
+    <row r="2" spans="1:21" s="2" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
@@ -5255,7 +4790,7 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:21">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>140</v>
       </c>
@@ -5296,19 +4831,19 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" s="2" customFormat="1"/>
-    <row r="5" s="2" customFormat="1"/>
-    <row r="6" s="2" customFormat="1"/>
-    <row r="7" s="2" customFormat="1"/>
-    <row r="8" s="2" customFormat="1"/>
-    <row r="9" s="2" customFormat="1"/>
-    <row r="10" s="2" customFormat="1"/>
-    <row r="11" s="2" customFormat="1"/>
-    <row r="12" s="2" customFormat="1"/>
-    <row r="13" s="2" customFormat="1"/>
-    <row r="14" s="2" customFormat="1"/>
-    <row r="15" s="2" customFormat="1"/>
-    <row r="16" s="2" customFormat="1"/>
+    <row r="4" spans="1:21" s="2" customFormat="1"/>
+    <row r="5" spans="1:21" s="2" customFormat="1"/>
+    <row r="6" spans="1:21" s="2" customFormat="1"/>
+    <row r="7" spans="1:21" s="2" customFormat="1"/>
+    <row r="8" spans="1:21" s="2" customFormat="1"/>
+    <row r="9" spans="1:21" s="2" customFormat="1"/>
+    <row r="10" spans="1:21" s="2" customFormat="1"/>
+    <row r="11" spans="1:21" s="2" customFormat="1"/>
+    <row r="12" spans="1:21" s="2" customFormat="1"/>
+    <row r="13" spans="1:21" s="2" customFormat="1"/>
+    <row r="14" spans="1:21" s="2" customFormat="1"/>
+    <row r="15" spans="1:21" s="2" customFormat="1"/>
+    <row r="16" spans="1:21" s="2" customFormat="1"/>
     <row r="17" s="2" customFormat="1"/>
     <row r="18" s="2" customFormat="1"/>
     <row r="19" s="2" customFormat="1"/>
@@ -21679,26 +21214,24 @@
     <row r="16384" s="2" customFormat="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="testuser@inv.com"/>
-    <hyperlink ref="G3" r:id="rId1" display="testuser@inv.com"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U16384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:21">
+    <row r="1" spans="1:21" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -21763,7 +21296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:7">
+    <row r="2" spans="1:21" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -21786,20 +21319,20 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1"/>
-    <row r="4" s="2" customFormat="1"/>
-    <row r="5" s="2" customFormat="1"/>
-    <row r="6" s="2" customFormat="1"/>
-    <row r="7" s="2" customFormat="1"/>
-    <row r="8" s="2" customFormat="1"/>
-    <row r="9" s="2" customFormat="1"/>
-    <row r="10" s="2" customFormat="1"/>
-    <row r="11" s="2" customFormat="1"/>
-    <row r="12" s="2" customFormat="1"/>
-    <row r="13" s="2" customFormat="1"/>
-    <row r="14" s="2" customFormat="1"/>
-    <row r="15" s="2" customFormat="1"/>
-    <row r="16" s="2" customFormat="1"/>
+    <row r="3" spans="1:21" s="2" customFormat="1"/>
+    <row r="4" spans="1:21" s="2" customFormat="1"/>
+    <row r="5" spans="1:21" s="2" customFormat="1"/>
+    <row r="6" spans="1:21" s="2" customFormat="1"/>
+    <row r="7" spans="1:21" s="2" customFormat="1"/>
+    <row r="8" spans="1:21" s="2" customFormat="1"/>
+    <row r="9" spans="1:21" s="2" customFormat="1"/>
+    <row r="10" spans="1:21" s="2" customFormat="1"/>
+    <row r="11" spans="1:21" s="2" customFormat="1"/>
+    <row r="12" spans="1:21" s="2" customFormat="1"/>
+    <row r="13" spans="1:21" s="2" customFormat="1"/>
+    <row r="14" spans="1:21" s="2" customFormat="1"/>
+    <row r="15" spans="1:21" s="2" customFormat="1"/>
+    <row r="16" spans="1:21" s="2" customFormat="1"/>
     <row r="17" s="2" customFormat="1"/>
     <row r="18" s="2" customFormat="1"/>
     <row r="19" s="2" customFormat="1"/>
@@ -38170,44 +37703,42 @@
     <row r="16384" s="2" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="38.4537037037037" customWidth="1"/>
-    <col min="3" max="3" width="69.2685185185185" customWidth="1"/>
-    <col min="4" max="4" width="27.1851851851852" customWidth="1"/>
-    <col min="5" max="5" width="23.9074074074074" customWidth="1"/>
-    <col min="6" max="6" width="29.1851851851852" customWidth="1"/>
-    <col min="7" max="7" width="17.0925925925926" customWidth="1"/>
-    <col min="8" max="8" width="19.8148148148148" customWidth="1"/>
-    <col min="9" max="9" width="18.0925925925926" customWidth="1"/>
-    <col min="10" max="10" width="30.1851851851852" customWidth="1"/>
-    <col min="11" max="11" width="27.4537037037037" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="69.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="17.1851851851852" customWidth="1"/>
-    <col min="14" max="14" width="19.5462962962963" customWidth="1"/>
-    <col min="15" max="15" width="17.8148148148148" customWidth="1"/>
-    <col min="16" max="16" width="20.3611111111111" customWidth="1"/>
-    <col min="17" max="17" width="19.1851851851852" customWidth="1"/>
-    <col min="18" max="18" width="14.4537037037037" customWidth="1"/>
-    <col min="20" max="20" width="20.0925925925926" customWidth="1"/>
-    <col min="21" max="21" width="11.8148148148148" customWidth="1"/>
-    <col min="22" max="22" width="20.0925925925926" customWidth="1"/>
-    <col min="23" max="23" width="10.2685185185185" customWidth="1"/>
-    <col min="24" max="24" width="33.3611111111111" customWidth="1"/>
-    <col min="25" max="25" width="15.6388888888889" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" customWidth="1"/>
+    <col min="24" max="24" width="33.42578125" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -38287,7 +37818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -38340,7 +37871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -38393,7 +37924,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -38446,7 +37977,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -38499,7 +38030,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -38641,7 +38172,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -38714,6 +38245,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>